--- a/data/trans_bre/P15_4-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_4-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,82</t>
+          <t>-19,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,74</t>
+          <t>-6,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-48,63%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-59,58%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-60,65%</t>
+          <t>-63,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-27,46%</t>
+          <t>-25,34%</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 1,96</t>
+          <t>-9,27; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 0,68</t>
+          <t>0,0; 9,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,86; -3,2</t>
+          <t>-52,13; 3,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 6,5</t>
+          <t>-26,71; 14,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 132,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-85,94; -16,66</t>
+          <t>-96,51; 40,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-59,63; 27,45</t>
+          <t>-65,28; 93,63</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,78</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,68</t>
+          <t>-11,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-41,66%</t>
+          <t>-31,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-51,97%</t>
+          <t>-39,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-21,47%</t>
+          <t>-28,65%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,66; -2,14</t>
+          <t>-15,47; 1,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,31; -1,42</t>
+          <t>-10,38; 2,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 6,69</t>
+          <t>-8,47; 11,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 1,62</t>
+          <t>-21,96; 0,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,19; -10,87</t>
+          <t>-58,69; 10,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,93; -14,43</t>
+          <t>-70,15; 40,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 27,54</t>
+          <t>-25,64; 53,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,78; 5,72</t>
+          <t>-48,12; 0,15</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>-4,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-19,57%</t>
+          <t>-10,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>-3,28%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 6,64</t>
+          <t>-9,93; 9,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 3,47</t>
+          <t>-8,91; 5,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 9,83</t>
+          <t>-5,87; 17,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 10,85</t>
+          <t>-14,02; 10,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,74; 42,41</t>
+          <t>-40,38; 64,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-60,06; 40,94</t>
+          <t>-54,44; 75,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 26,85</t>
+          <t>-13,17; 54,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 25,21</t>
+          <t>-26,17; 24,96</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-37,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-13,07%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,5; -0,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,13; -0,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 2,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 1,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,85; -1,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,47; -8,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 8,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 3,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-3,69</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,22</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-6,44</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-20,34%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-23,02%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-15,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-8,96; 1,86</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 1,61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-7,88; 7,36</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-14,46; 1,73</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-42,17; 12,8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-52,46; 25,41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-20,72; 25,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-31,67; 5,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/P15_4-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_4-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,193 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,8</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-19,42</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-6,97</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-63,12%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-25,34%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.79526886186697</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.530610086278475</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-16.31816370577643</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-7.42703801843135</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.598208197438537</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.267229351766977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,27; 0,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,13</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-52,13; 3,41</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-26,71; 14,1</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-96,51; 40,44</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-65,28; 93,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.265014210856814</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-47.31882931672724</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-27.77156380041079</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.9642633358572319</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6563761077055655</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.142611030449437</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.54082204482892</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13.4484847660577</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.5395321793053839</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.8871576815258576</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-6,8</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,46</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-11,31</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-31,6%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-39,49%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,41%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-28,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-15,47; 1,37</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,38; 2,39</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,47; 11,94</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-21,96; 0,14</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-58,69; 10,59</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-70,15; 40,06</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-25,64; 53,83</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-48,12; 0,15</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-6.795176316947379</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-5.076577918395182</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.611282990996781</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-10.18564939822991</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.3159904637494921</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.4074159892108479</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.02083578956155036</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.260685530477353</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,98</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-4,2%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-10,69%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>12,79%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-3,28%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-15.4733068935616</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-11.98476359900511</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.428294825479073</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-21.0851617423741</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5869006120884592</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.7147847301665418</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2796124074047001</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4730458645288083</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,93; 9,11</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,91; 5,3</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,87; 17,87</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,02; 10,06</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-40,38; 64,32</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-54,44; 75,48</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-13,17; 54,64</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-26,17; 24,96</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.374145348960828</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.387894084035326</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.99620145596908</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.161738752909047</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.1059114680185813</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.4061781576254239</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.5028596159743605</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.03157554356235202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +821,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.8283451505225026</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.426345400839851</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.425816632130103</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.382027799527247</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.04204161895699282</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1982017432381815</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1128056692468961</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.02890009396590813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.934594931912898</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.75676677922299</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.634298600332878</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-13.68485464206616</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.4037678937646524</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6310621160299045</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1447133538268394</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2574694169518172</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.108694393818881</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.129573650289391</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.17062625558025</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.21729976187543</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.64320435345316</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.5516858920376271</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.5421079659520585</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2524461016834475</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,69</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-6,44</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-20,34%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-23,02%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-15,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,96; 1,86</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 1,61</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,88; 7,36</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-14,46; 1,73</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-42,17; 12,8</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-52,46; 25,41</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-20,72; 25,6</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-31,67; 5,36</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-3.686939713180651</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.060399654725696</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.038305065691141</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-6.194439559115566</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2034109481257718</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.2876576832148273</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.0011711645181737</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1528039206496339</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.95877426868244</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.163972901692294</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.654381994100799</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-14.06616342603085</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.421743998003621</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.5755208503035394</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2085257845682623</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3144645872294835</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.856461239250557</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.182345536525879</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.114158817934419</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.729647065425894</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1279783126562328</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1677776690309981</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2527214380480725</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.04476755946026036</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
